--- a/individual_case_outputs/avey/336.xlsx
+++ b/individual_case_outputs/avey/336.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>cervical polyps</t>
+          <t>vaginitis and crvictis</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
